--- a/biology/Médecine/Thoracoscopie/Thoracoscopie.xlsx
+++ b/biology/Médecine/Thoracoscopie/Thoracoscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thoracoscopie fait partie de la chirurgie dite minimalement invasive, pour le thorax. Ceci signifie des interventions faites par plusieurs petites incisions (d’environ 2 cm de long) à l’aide d’instruments longs et fins. La lumière et la vision sont fournies par une optique introduite par l’une de ces incisions. Un certain nombre d’interventions peuvent ainsi être pratiquées en chirurgie thoracique.
 Ces interventions doivent respecter trois règles essentielles : la première est que le principe de base de l’intervention doit être identique à l’intervention classique pratiquée par une thoracotomie classique, c'est-à-dire qu’il ne saurait être question de faire une « opération au rabais ». La deuxième règle est que la sécurité du patient ne peut être compromise. La troisième est que le pronostic de l’affection traitée ne doit pas être péjoré par la voie minimalement invasive. Ces considérations font que toutes les opérations thoraciques ne se font pas par thoracoscopie.
